--- a/src/test/resources/types.xlsx
+++ b/src/test/resources/types.xlsx
@@ -59,11 +59,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD\ HH:MM"/>
-    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD\ HH:MM"/>
+    <numFmt numFmtId="168" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -138,10 +139,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +148,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,7 +175,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="B2:K2 E20"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -183,7 +184,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
@@ -245,8 +246,7 @@
       <c r="G2" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">IF(1,TRUE())</f>
+      <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="n">
